--- a/Log3.xlsx
+++ b/Log3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85EEC00-8861-470B-BBC6-F7323977D914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0CD805-50DB-4CAC-8D7B-FCC16AA53ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -90,29 +90,35 @@
     <t>N</t>
   </si>
   <si>
-    <t>SS-01</t>
-  </si>
-  <si>
-    <t>SS-02</t>
-  </si>
-  <si>
-    <t>SS-03</t>
-  </si>
-  <si>
-    <t>SS-04</t>
-  </si>
-  <si>
-    <t>SS-05</t>
+    <t>SS-1</t>
+  </si>
+  <si>
+    <t>SS-2</t>
+  </si>
+  <si>
+    <t>SS-3</t>
+  </si>
+  <si>
+    <t>SS-4</t>
+  </si>
+  <si>
+    <t>SS-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -466,7 +472,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,6 +691,7 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Log3.xlsx
+++ b/Log3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0CD805-50DB-4CAC-8D7B-FCC16AA53ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D952F7-E2BD-4ACF-8196-ED3B0FF39909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,10 +567,10 @@
         <v>3.8</v>
       </c>
       <c r="E4">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -593,10 +593,10 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>22</v>
@@ -622,7 +622,7 @@
         <v>1.8</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -648,7 +648,7 @@
         <v>1.8</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -674,7 +674,7 @@
         <v>1.8</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8">
         <v>18</v>

--- a/Log3.xlsx
+++ b/Log3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D952F7-E2BD-4ACF-8196-ED3B0FF39909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1DEFB-D037-45A4-8E55-8E8D3ADBB14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>22</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>21</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="N7">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="N8">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Log3.xlsx
+++ b/Log3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1DEFB-D037-45A4-8E55-8E8D3ADBB14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52A20D5-CC20-416A-9FFD-C6AE95B629B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>22</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>21</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
